--- a/tests/data/test_data_import/paatokset.xlsx
+++ b/tests/data/test_data_import/paatokset.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Päätöstietopohja!A10:R10" vbProcedure="false">Sheet1!$A$1</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t xml:space="preserve">Otsikko</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t xml:space="preserve">1.1.2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vastaanottaja Karita Pyykoski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7.2022</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,11 +160,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,10 +221,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,15 +240,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,7 +450,7 @@
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -356,12 +462,56 @@
       <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>26</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/data/test_data_import/paatokset.xlsx
+++ b/tests/data/test_data_import/paatokset.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t xml:space="preserve">Otsikko</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.1.2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123/2022 Otsikko</t>
   </si>
   <si>
     <t xml:space="preserve">20.6.2022</t>
@@ -354,7 +357,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,13 +474,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -489,7 +492,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>25</v>
@@ -501,7 +504,7 @@
         <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
